--- a/medicine/Enfance/Marianne_Valandré/Marianne_Valandré.xlsx
+++ b/medicine/Enfance/Marianne_Valandré/Marianne_Valandré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marianne_Valandr%C3%A9</t>
+          <t>Marianne_Valandré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marianne Valandré est le pseudonyme de Claudie Langlois Chassaignon, auteur de contes pour enfants et traductrice de romans anglais et américains, née le 1er juillet 1937 et décédée le 12 janvier 2010. Ce pseudonyme est constitué de son deuxième prénom auquel est joint la contraction des prénoms de ses deux parents.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marianne_Valandr%C3%A9</t>
+          <t>Marianne_Valandré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fille d'André Chassaignon et de Valentine Chassaignon de Cazes, Claudie Chassaignon est née le 1er juillet 1937 à Paris dans le 15e arrondissement. Elle se marie le 18 juin 1960 avec Francis Langlois dont elle conservera le nom après son divorce en 1974.
 Institutrice à Tizi Ouzou en Algérie et professeur d'anglais de 1960 à 1962, elle commence sa carrière en traduisant quatre romans d'espionnage aux éditions Fleuve noir. Il s'agit de Bel Amant d'Anthony Robinson en 1965, Le Troyen et L'Espionne des Pharaons de Noël B Gerson respectivement publiés en 1965 et 1968 et enfin la Capitale de l'Or d'Éric Lambert publié en 1966. En 1978, elle signe la traduction française du livre Météore aux éditions Belfond qui accompagne la sortie du film du même nom avec l'acteur Sean Connery, puis en 1979 L'Affaire Frankenheim de Laszlo Deutsch. Elle traduit également La brulure de la Passion de Barbara Cartland aux Editions J'ai Lu, en 1986.
